--- a/a-place-for-salvador-allende/countries/Peru.xlsx
+++ b/a-place-for-salvador-allende/countries/Peru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D0276102D3E15325F86E3F816CDB0C44404F86A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C289BE6-4C47-4F65-A5B5-6D5BA3FCCE23}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_D0276102D3E15325F86E3F816CDB0C44404F86A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD6279F-A4C0-4FE8-A7BE-1C56BF419F77}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -131,6 +131,39 @@
   </si>
   <si>
     <t>http://www.abacq.org/calle/index.php?2007/02/20/13-peru</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/si4ws6UzUJcWKGr8A</t>
+  </si>
+  <si>
+    <t>Villa María del Triunfo</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/241226313#map=18/-12.18260/-76.94901</t>
+  </si>
+  <si>
+    <t>Avenida Salvador Allende</t>
+  </si>
+  <si>
+    <t>abacq date posted</t>
+  </si>
+  <si>
+    <t>openstreetmap</t>
+  </si>
+  <si>
+    <t>Vallecito</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/9gS4FS77yjSxQ36x9</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/way/111941989</t>
+  </si>
+  <si>
+    <t>google maps</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/tC5TJgUhPoRYyHkV9</t>
   </si>
 </sst>
 </file>
@@ -545,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +664,9 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>104</v>
+      </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -676,20 +712,149 @@
       <c r="P2">
         <v>20</v>
       </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="X2" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="Y2" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>15828</v>
+      </c>
+      <c r="L3">
+        <v>-12.1825599217897</v>
+      </c>
+      <c r="M3">
+        <v>-76.948206122631603</v>
+      </c>
+      <c r="N3">
+        <v>2018</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>15811</v>
+      </c>
+      <c r="L4">
+        <v>-12.1428039968166</v>
+      </c>
+      <c r="M4">
+        <v>-76.953055786907996</v>
+      </c>
+      <c r="N4">
+        <v>2013</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="W2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="X3" r:id="rId3" xr:uid="{5C6848F5-C12D-4B96-AE7B-7C3C3B71FAF0}"/>
+    <hyperlink ref="W3" r:id="rId4" location="map=18/-12.18260/-76.94901" xr:uid="{0EE53A09-8738-42C3-9B16-F76B3F838F8F}"/>
+    <hyperlink ref="X4" r:id="rId5" xr:uid="{599D4147-CFB5-4E4C-8343-BC2CDB343F3B}"/>
+    <hyperlink ref="W4" r:id="rId6" xr:uid="{56D6259D-E85A-4E44-BC42-AA7C6F9D8460}"/>
+    <hyperlink ref="X2" r:id="rId7" xr:uid="{D988F405-B560-43F8-8FCD-052884E6A201}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
